--- a/FN/src/assets/format/format input training.xlsx
+++ b/FN/src/assets/format/format input training.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>emp_no</t>
   </si>
@@ -34,13 +34,16 @@
   </si>
   <si>
     <t>example</t>
+  </si>
+  <si>
+    <t>เริ่มนำข้อมูลเข้าตั้งแต่แถวที่ 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +55,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -93,6 +103,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,11 +384,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +397,7 @@
     <col min="2" max="2" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -394,8 +405,11 @@
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -406,7 +420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
